--- a/Modelos em Python/1 dias a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros todo.xlsx
+++ b/Modelos em Python/1 dias a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros todo.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>15.82151236438149</v>
+        <v>15.79097077203862</v>
       </c>
       <c r="C11" t="n">
-        <v>51.29876337880639</v>
+        <v>51.18414917421974</v>
       </c>
       <c r="D11" t="n">
-        <v>60.28048717909849</v>
+        <v>60.18821088111422</v>
       </c>
     </row>
     <row r="12">
